--- a/data/articles_demo.xlsx
+++ b/data/articles_demo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,63 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Article de test</t>
+          <t>Article sur l économie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ceci est un article de test pour démontrer le fonctionnement du chatbot.</t>
+          <t>L économie mondiale montre des signes de reprise...</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Actualités politiques</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Les dernières décisions politiques impactent...</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Innovations technologiques</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Les nouvelles technologies révolutionnent...</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Développement durable</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Les initiatives environnementales progressent...</t>
         </is>
       </c>
     </row>

--- a/data/articles_demo.xlsx
+++ b/data/articles_demo.xlsx
@@ -453,68 +453,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Article sur l économie</t>
+          <t>L inflation en France atteint 3.5% en janvier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>L économie mondiale montre des signes de reprise...</t>
+          <t>Selon les derniers chiffres de l INSEE, l inflation en France s établit à 3.5% sur un an en janvier 2024. Cette hausse est principalement due à l augmentation des prix de l énergie et de l alimentation. Les experts prévoient une stabilisation progressive des prix dans les mois à venir.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Actualités politiques</t>
+          <t>La BCE maintient ses taux face à l inflation persistante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Les dernières décisions politiques impactent...</t>
+          <t>La Banque Centrale Européenne a décidé de maintenir ses taux d intérêt à leur niveau actuel, estimant que l inflation reste trop élevée dans la zone euro. Christine Lagarde, présidente de la BCE, souligne l importance de maintenir une politique monétaire stricte pour ramener l inflation à l objectif de 2%.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Innovations technologiques</t>
+          <t>Le pouvoir d achat des ménages impacté par l inflation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Les nouvelles technologies révolutionnent...</t>
+          <t>Une étude récente montre que l inflation continue d affecter significativement le pouvoir d achat des ménages français. Les dépenses alimentaires et énergétiques pèsent particulièrement sur le budget des familles. Les associations de consommateurs appellent à des mesures de soutien supplémentaires.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Développement durable</t>
+          <t>Les mesures gouvernementales pour lutter contre l inflation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Les initiatives environnementales progressent...</t>
+          <t>Le gouvernement français annonce de nouvelles mesures pour atténuer l impact de l inflation : prolongation du bouclier tarifaire sur l énergie, chèque alimentaire pour les ménages modestes, et négociations avec les distributeurs pour limiter les hausses de prix. Ces mesures visent à protéger le pouvoir d achat des Français.</t>
         </is>
       </c>
     </row>
